--- a/output/集成电路出口.xlsx
+++ b/output/集成电路出口.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-6月金额</t>
+          <t>2024年1-7月金额</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-6月占比</t>
+          <t>2024年1-7月占比</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -510,10 +510,10 @@
         <v>0.3825838764115058</v>
       </c>
       <c r="H2" t="n">
-        <v>356.49</v>
+        <v>424.64</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3990619262974074</v>
+        <v>0.4018320148378061</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>0.2448274178057291</v>
       </c>
       <c r="H3" t="n">
-        <v>198.67</v>
+        <v>240.33</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2223951103747817</v>
+        <v>0.2274215526704266</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -578,10 +578,10 @@
         <v>0.06921194428316395</v>
       </c>
       <c r="H4" t="n">
-        <v>53.14</v>
+        <v>61.15</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0594859624770519</v>
+        <v>0.05786555130777092</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -614,10 +614,10 @@
         <v>0.05923305243394886</v>
       </c>
       <c r="H5" t="n">
-        <v>50.02</v>
+        <v>58</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05599337303541844</v>
+        <v>0.0548847420417124</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>0.03677376294841255</v>
       </c>
       <c r="H6" t="n">
-        <v>43.08</v>
+        <v>49.09</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04822460036716966</v>
+        <v>0.0464533101177183</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         <v>0.03563967464145989</v>
       </c>
       <c r="H7" t="n">
-        <v>34.18</v>
+        <v>39.46</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03826176510097166</v>
+        <v>0.03734055036148227</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -722,10 +722,10 @@
         <v>0.03073976200424334</v>
       </c>
       <c r="H8" t="n">
-        <v>26.94</v>
+        <v>30.84</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03015716652487351</v>
+        <v>0.02918354214769673</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -758,10 +758,10 @@
         <v>0.03070177818535019</v>
       </c>
       <c r="H9" t="n">
-        <v>25.76</v>
+        <v>29.45</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02883625128733265</v>
+        <v>0.02786820091600742</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -794,10 +794,10 @@
         <v>0.02809717346124837</v>
       </c>
       <c r="H10" t="n">
-        <v>31.13</v>
+        <v>37.65</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03484753503783639</v>
+        <v>0.03562776789431849</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -830,10 +830,10 @@
         <v>0.01867718637574679</v>
       </c>
       <c r="H11" t="n">
-        <v>11.05</v>
+        <v>13.36</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01236958760578516</v>
+        <v>0.01264241644271169</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -866,10 +866,10 @@
         <v>0.01409199680935921</v>
       </c>
       <c r="H12" t="n">
-        <v>17.03</v>
+        <v>21.03</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01906371736891596</v>
+        <v>0.0199004504334002</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -902,10 +902,10 @@
         <v>0.013250926533868</v>
       </c>
       <c r="H13" t="n">
-        <v>9.52</v>
+        <v>10.78</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01065687547575337</v>
+        <v>0.01020099171051137</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -938,10 +938,10 @@
         <v>0.009843235353168122</v>
       </c>
       <c r="H14" t="n">
-        <v>11.94</v>
+        <v>13.3</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01336587113240496</v>
+        <v>0.01258563912335819</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         <v>0.007260335668433818</v>
       </c>
       <c r="H15" t="n">
-        <v>7.68</v>
+        <v>8.57</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008597143240943895</v>
+        <v>0.008109693780990954</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         <v>0.002783671298883818</v>
       </c>
       <c r="H16" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001511216585322169</v>
+        <v>0.001532987622544381</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1046,10 +1046,10 @@
         <v>0.002637162283153091</v>
       </c>
       <c r="H17" t="n">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002014955447096226</v>
+        <v>0.001958817517695598</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1082,10 +1082,10 @@
         <v>0.001318581141576546</v>
       </c>
       <c r="H18" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001197779071329423</v>
+        <v>0.001126083500510996</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1118,10 +1118,10 @@
         <v>0.001248039763632122</v>
       </c>
       <c r="H19" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001511216585322169</v>
+        <v>0.001362655664483894</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         <v>0.001096104488059515</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0009067299511933015</v>
+        <v>0.0007948824709489384</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
         <v>0.001096104488059515</v>
       </c>
       <c r="H21" t="n">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001488828191465544</v>
+        <v>0.001551913395662213</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1226,10 +1226,10 @@
         <v>0.001085251968375758</v>
       </c>
       <c r="H22" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001153002283616173</v>
+        <v>0.001078769067716416</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1262,10 +1262,10 @@
         <v>0.0009170379132775152</v>
       </c>
       <c r="H23" t="n">
-        <v>0.86</v>
+        <v>1.01</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0009627009358348633</v>
+        <v>0.0009557515424505091</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1298,10 +1298,10 @@
         <v>0.0008302177558074547</v>
       </c>
       <c r="H24" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0008507589665517396</v>
+        <v>0.0008138082440667701</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1334,10 +1334,10 @@
         <v>0.0006728562203929698</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0009179241481216139</v>
+        <v>0.0008138082440667701</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         <v>0.0006620037007092123</v>
       </c>
       <c r="H26" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0003806026955626204</v>
+        <v>0.0003690525757977213</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1406,10 +1406,10 @@
         <v>0.0006077411022904243</v>
       </c>
       <c r="H27" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000458962074060807</v>
+        <v>0.0004069041220333851</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1442,10 +1442,10 @@
         <v>0.0005317734645041213</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0002350781354945597</v>
+        <v>0.0002176463908550664</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1478,10 +1478,10 @@
         <v>0.0004503795668759394</v>
       </c>
       <c r="H29" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0002574665293511844</v>
+        <v>0.0002460350505318142</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1514,10 +1514,10 @@
         <v>0.0004395270471921819</v>
       </c>
       <c r="H30" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0002126897416379349</v>
+        <v>0.0002176463908550664</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1550,10 +1550,10 @@
         <v>0.0003418543700383637</v>
       </c>
       <c r="H31" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001712712130031792</v>
+        <v>0.001466747416631969</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1586,10 +1586,10 @@
         <v>0.0003364281101964849</v>
       </c>
       <c r="H32" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0001455245600680607</v>
+        <v>0.0001703319580604868</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
         <v>0.0003038705511452121</v>
       </c>
       <c r="H33" t="n">
-        <v>0.29</v>
+        <v>0.71</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0003246317109210586</v>
+        <v>0.0006718649456830311</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>7.835937849818654e-05</v>
+        <v>6.624020591241151e-05</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>0.13</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0001455245600680607</v>
+        <v>0.0001230175252659071</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>0.0001682140550982425</v>
       </c>
       <c r="H36" t="n">
-        <v>0.71</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0007947879819101778</v>
+        <v>0.0007759566978311064</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1766,10 +1766,10 @@
         <v>0.0001682140550982425</v>
       </c>
       <c r="H37" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0001007477723548113</v>
+        <v>9.462886558915933e-05</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>0.0001248039763632121</v>
       </c>
       <c r="H38" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0004141852863475574</v>
+        <v>0.0003690525757977213</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1838,10 +1838,10 @@
         <v>0.0001248039763632121</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>3.358259078493709e-05</v>
+        <v>3.785154623566373e-05</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>0.1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0001119419692831236</v>
+        <v>9.462886558915933e-05</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1910,10 +1910,10 @@
         <v>9.767267715381819e-05</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>5.597098464156182e-05</v>
+        <v>6.624020591241153e-05</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1946,10 +1946,10 @@
         <v>7.596763778630303e-05</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I42" t="n">
-        <v>5.597098464156182e-05</v>
+        <v>5.677731935349559e-05</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1982,10 +1982,10 @@
         <v>5.426259841878789e-05</v>
       </c>
       <c r="H43" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0001455245600680607</v>
+        <v>0.0001324804118248231</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2018,10 +2018,10 @@
         <v>5.426259841878789e-05</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>2.238839385662473e-05</v>
+        <v>2.838865967674779e-05</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         <v>5.426259841878789e-05</v>
       </c>
       <c r="H45" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I45" t="n">
-        <v>2.238839385662473e-05</v>
+        <v>2.838865967674779e-05</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>0.05</v>
       </c>
       <c r="I46" t="n">
-        <v>5.597098464156182e-05</v>
+        <v>4.731443279457966e-05</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2126,10 +2126,10 @@
         <v>3.255755905127273e-05</v>
       </c>
       <c r="H47" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I47" t="n">
-        <v>2.238839385662473e-05</v>
+        <v>2.838865967674779e-05</v>
       </c>
       <c r="J47" t="inlineStr"/>
     </row>
@@ -2158,10 +2158,10 @@
         <v>3.255755905127273e-05</v>
       </c>
       <c r="H48" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I48" t="n">
-        <v>4.477678771324945e-05</v>
+        <v>4.731443279457966e-05</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>0.02</v>
       </c>
       <c r="I49" t="n">
-        <v>2.238839385662473e-05</v>
+        <v>1.892577311783187e-05</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>0.01</v>
       </c>
       <c r="I50" t="n">
-        <v>1.119419692831236e-05</v>
+        <v>9.462886558915933e-06</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>0.03</v>
       </c>
       <c r="I54" t="n">
-        <v>3.358259078493709e-05</v>
+        <v>2.838865967674779e-05</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>0.01</v>
       </c>
       <c r="I55" t="n">
-        <v>1.119419692831236e-05</v>
+        <v>9.462886558915933e-06</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         <v>5.426259841878789e-06</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I56" t="n">
-        <v>1.119419692831236e-05</v>
+        <v>3.785154623566373e-05</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>0.01</v>
       </c>
       <c r="I58" t="n">
-        <v>1.119419692831236e-05</v>
+        <v>9.462886558915933e-06</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>0.11</v>
       </c>
       <c r="I61" t="n">
-        <v>0.000123136166211436</v>
+        <v>0.0001040917521480752</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0001119419692831236</v>
+        <v>0.0001040917521480752</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -5102,10 +5102,10 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>9.462886558915933e-06</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>

--- a/output/集成电路出口.xlsx
+++ b/output/集成电路出口.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-7月金额</t>
+          <t>2024年1-8月金额</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024年1-7月占比</t>
+          <t>2024年1-8月占比</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -510,10 +510,10 @@
         <v>0.3825838764115058</v>
       </c>
       <c r="H2" t="n">
-        <v>424.64</v>
+        <v>487.3</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4018320148378061</v>
+        <v>0.4065406916113961</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -546,10 +546,10 @@
         <v>0.2448274178057291</v>
       </c>
       <c r="H3" t="n">
-        <v>240.33</v>
+        <v>261.44</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2274215526704266</v>
+        <v>0.2181120427147207</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -578,10 +578,10 @@
         <v>0.06921194428316395</v>
       </c>
       <c r="H4" t="n">
-        <v>61.15</v>
+        <v>69.34</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05786555130777092</v>
+        <v>0.05784841279773078</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -614,10 +614,10 @@
         <v>0.05923305243394886</v>
       </c>
       <c r="H5" t="n">
-        <v>58</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0548847420417124</v>
+        <v>0.05634672339715514</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -650,10 +650,10 @@
         <v>0.03677376294841255</v>
       </c>
       <c r="H6" t="n">
-        <v>49.09</v>
+        <v>56.17999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0464533101177183</v>
+        <v>0.04686939473574437</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         <v>0.03563967464145989</v>
       </c>
       <c r="H7" t="n">
-        <v>39.46</v>
+        <v>47.28</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03734055036148227</v>
+        <v>0.03944437492178701</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -722,10 +722,10 @@
         <v>0.03073976200424334</v>
       </c>
       <c r="H8" t="n">
-        <v>30.84</v>
+        <v>35.28</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02918354214769673</v>
+        <v>0.02943311225128269</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -758,10 +758,10 @@
         <v>0.03070177818535019</v>
       </c>
       <c r="H9" t="n">
-        <v>29.45</v>
+        <v>33.53</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02786820091600742</v>
+        <v>0.02797313644516748</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -794,10 +794,10 @@
         <v>0.02809717346124837</v>
       </c>
       <c r="H10" t="n">
-        <v>37.65</v>
+        <v>43.06</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03562776789431849</v>
+        <v>0.03592374754932633</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -830,10 +830,10 @@
         <v>0.01867718637574679</v>
       </c>
       <c r="H11" t="n">
-        <v>13.36</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01264241644271169</v>
+        <v>0.0125140783381304</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -866,10 +866,10 @@
         <v>0.01409199680935921</v>
       </c>
       <c r="H12" t="n">
-        <v>21.03</v>
+        <v>24.72</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0199004504334002</v>
+        <v>0.02062320110123889</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -902,10 +902,10 @@
         <v>0.013250926533868</v>
       </c>
       <c r="H13" t="n">
-        <v>10.78</v>
+        <v>12.02</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01020099171051137</v>
+        <v>0.01002794810828849</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -938,10 +938,10 @@
         <v>0.009843235353168122</v>
       </c>
       <c r="H14" t="n">
-        <v>13.3</v>
+        <v>15.02</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01258563912335819</v>
+        <v>0.01253076377591457</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -974,10 +974,10 @@
         <v>0.007260335668433818</v>
       </c>
       <c r="H15" t="n">
-        <v>8.57</v>
+        <v>9.6</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008109693780990954</v>
+        <v>0.008009010136403453</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1010,10 +1010,10 @@
         <v>0.002783671298883818</v>
       </c>
       <c r="H16" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001532987622544381</v>
+        <v>0.001485003962791474</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1046,10 +1046,10 @@
         <v>0.002637162283153091</v>
       </c>
       <c r="H17" t="n">
-        <v>2.07</v>
+        <v>2.35</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001958817517695598</v>
+        <v>0.001960538939640429</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1082,10 +1082,10 @@
         <v>0.001318581141576546</v>
       </c>
       <c r="H18" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="I18" t="n">
-        <v>0.001126083500510996</v>
+        <v>0.001126267050431736</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1118,10 +1118,10 @@
         <v>0.001248039763632122</v>
       </c>
       <c r="H19" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001362655664483894</v>
+        <v>0.001309806866057648</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         <v>0.001096104488059515</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0007948824709489384</v>
+        <v>0.0007425019813957368</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
         <v>0.001096104488059515</v>
       </c>
       <c r="H21" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001551913395662213</v>
+        <v>0.001443290368331039</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1226,10 +1226,10 @@
         <v>0.001085251968375758</v>
       </c>
       <c r="H22" t="n">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="I22" t="n">
-        <v>0.001078769067716416</v>
+        <v>0.001051182580402953</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1262,10 +1262,10 @@
         <v>0.0009170379132775152</v>
       </c>
       <c r="H23" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0009557515424505091</v>
+        <v>0.001084553455971301</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1298,10 +1298,10 @@
         <v>0.0008302177558074547</v>
       </c>
       <c r="H24" t="n">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0008138082440667701</v>
+        <v>0.0008009010136403453</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1334,10 +1334,10 @@
         <v>0.0006728562203929698</v>
       </c>
       <c r="H25" t="n">
-        <v>0.86</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0008138082440667701</v>
+        <v>0.0007508447002878237</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         <v>0.0006620037007092123</v>
       </c>
       <c r="H26" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0003690525757977213</v>
+        <v>0.0003420514745755642</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1406,10 +1406,10 @@
         <v>0.0006077411022904243</v>
       </c>
       <c r="H27" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0004069041220333851</v>
+        <v>0.0003754223501439119</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0.23</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0002176463908550664</v>
+        <v>0.0001918825345179994</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1478,10 +1478,10 @@
         <v>0.0004503795668759394</v>
       </c>
       <c r="H29" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0002460350505318142</v>
+        <v>0.0002669670045467818</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1514,10 +1514,10 @@
         <v>0.0004395270471921819</v>
       </c>
       <c r="H30" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0002176463908550664</v>
+        <v>0.0002252534100863471</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1550,10 +1550,10 @@
         <v>0.0003418543700383637</v>
       </c>
       <c r="H31" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="I31" t="n">
-        <v>0.001466747416631969</v>
+        <v>0.001318149584949735</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1586,10 +1586,10 @@
         <v>0.0003364281101964849</v>
       </c>
       <c r="H32" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0001703319580604868</v>
+        <v>0.0002085679723021733</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1622,10 +1622,10 @@
         <v>0.0003038705511452121</v>
       </c>
       <c r="H33" t="n">
-        <v>0.71</v>
+        <v>0.97</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0006718649456830311</v>
+        <v>0.0008092437325324322</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1658,10 +1658,10 @@
         <v>0.0002279029133589091</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="I34" t="n">
-        <v>6.624020591241151e-05</v>
+        <v>8.34271889208693e-05</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1694,10 +1694,10 @@
         <v>0.0002007716141495152</v>
       </c>
       <c r="H35" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0001230175252659071</v>
+        <v>0.0001334835022733909</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1730,10 +1730,10 @@
         <v>0.0001682140550982425</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0007759566978311064</v>
+        <v>0.0007007883869353022</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1766,10 +1766,10 @@
         <v>0.0001682140550982425</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I37" t="n">
-        <v>9.462886558915933e-05</v>
+        <v>9.176990781295623e-05</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1802,10 +1802,10 @@
         <v>0.0001248039763632121</v>
       </c>
       <c r="H38" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0003690525757977213</v>
+        <v>0.000358736912359738</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>3.785154623566373e-05</v>
+        <v>3.337087556834772e-05</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1874,10 +1874,10 @@
         <v>0.0001139514566794546</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I40" t="n">
-        <v>9.462886558915933e-05</v>
+        <v>0.0001001126267050432</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>6.624020591241153e-05</v>
+        <v>5.839903224460852e-05</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1946,10 +1946,10 @@
         <v>7.596763778630303e-05</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I42" t="n">
-        <v>5.677731935349559e-05</v>
+        <v>6.674175113669545e-05</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1982,10 +1982,10 @@
         <v>5.426259841878789e-05</v>
       </c>
       <c r="H43" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0001324804118248231</v>
+        <v>0.0001334835022733909</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>2.838865967674779e-05</v>
+        <v>2.502815667626079e-05</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>0.03</v>
       </c>
       <c r="I45" t="n">
-        <v>2.838865967674779e-05</v>
+        <v>2.502815667626079e-05</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2090,10 +2090,10 @@
         <v>4.341007873503031e-05</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I46" t="n">
-        <v>4.731443279457966e-05</v>
+        <v>5.005631335252158e-05</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2126,10 +2126,10 @@
         <v>3.255755905127273e-05</v>
       </c>
       <c r="H47" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>2.838865967674779e-05</v>
+        <v>3.337087556834772e-05</v>
       </c>
       <c r="J47" t="inlineStr"/>
     </row>
@@ -2158,10 +2158,10 @@
         <v>3.255755905127273e-05</v>
       </c>
       <c r="H48" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I48" t="n">
-        <v>4.731443279457966e-05</v>
+        <v>5.005631335252159e-05</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2194,10 +2194,10 @@
         <v>2.713129920939394e-05</v>
       </c>
       <c r="H49" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I49" t="n">
-        <v>1.892577311783187e-05</v>
+        <v>2.502815667626079e-05</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
         <v>0.01</v>
       </c>
       <c r="I50" t="n">
-        <v>9.462886558915933e-06</v>
+        <v>8.342718892086931e-06</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2266,10 +2266,10 @@
         <v>1.627877952563636e-05</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>8.342718892086931e-06</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>0.03</v>
       </c>
       <c r="I54" t="n">
-        <v>2.838865967674779e-05</v>
+        <v>2.502815667626079e-05</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>0.01</v>
       </c>
       <c r="I55" t="n">
-        <v>9.462886558915933e-06</v>
+        <v>8.342718892086931e-06</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         <v>5.426259841878789e-06</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I56" t="n">
-        <v>3.785154623566373e-05</v>
+        <v>5.839903224460852e-05</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>0.01</v>
       </c>
       <c r="I58" t="n">
-        <v>9.462886558915933e-06</v>
+        <v>8.342718892086931e-06</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         <v>0.11</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0001040917521480752</v>
+        <v>9.176990781295623e-05</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2906,10 +2906,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0001040917521480752</v>
+        <v>0.000116798064489217</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>8.342718892086931e-06</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>0.01</v>
       </c>
       <c r="I131" t="n">
-        <v>9.462886558915933e-06</v>
+        <v>8.342718892086931e-06</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
